--- a/Documents/策划/精华技能.xlsx
+++ b/Documents/策划/精华技能.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>狂怒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,10 @@
   </si>
   <si>
     <t>欲望：驱使                     在贪婪看来，财富是世上最神奇的事物，可以驱使一切。攻击时（概率：暂定）有一定概率驱使敌方为自己战斗（本房间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可切换形态,切换至A形态,仅A形态的精华技能有效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -677,7 +681,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Documents/策划/精华技能.xlsx
+++ b/Documents/策划/精华技能.xlsx
@@ -62,103 +62,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>欲望：占有                     贪婪的欲望使得其想占有一切财富，越来越多的财富使其不断兴奋，变得更强。每使用（暂定：3）个道具回复一格体力（主动道具使用一次算一格道具，立即生效道具算一个道具）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（····）                                                   主动道具充能时，一定概率增加的灵魂数+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诅咒：毒噬                       攻击时用自己最拿手的剧毒诅咒吞噬对方，有一定几率使对方中毒（对方每次攻击时受到1点伤害，攻击三点）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">欲望：本性贪婪                 强大的欲望使得自己可以为了自己财富失去本性。财富（有用过的道具，详解见贪婪第五被动）越多，幸运越高（比例暂定）                                        </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 6001-6005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 6006-6010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 60016-6020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 6011-6015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜睡：                           每结束一个房间回复一格生命（暂定，太强该被动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望：血之暴怒                  当自己的生命少于3格时（不包括三格）时，处于暴走状态，造成的攻击伤害+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：血奴                     被吸血鬼击杀的敌人都有可能变成吸血鬼虚弱的血奴，为其战斗（概率：暂定 血奴：血量为三点 攻击方式：用爪子向前平砍 攻击速度：最低档次 移动速度：最低档次 硬值：暂定 伤害：1点）（本房间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：坚甲                     优秀种族天赋给予了矮人们强大的抗性（不会被击倒，但是会被打断击退和硬控）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可切换形态,切换至A形态,仅A形态的精华技能有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">（····）                         一次性道具的使用次数+1，道具的掉落概率增加  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望：驱使                     在贪婪看来，财富是世上最神奇的事物，可以驱使一切。攻击时（概率：暂定）有一定概率驱使敌方为自己战斗（本房间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：变身蝙蝠                 攻击时（概率：暂定）召唤一只蝙蝠（一段时间：随机 自爆，造成伤害：1，范围：暂定 无法被指定 飞行路径随机 ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望：缠怒                     带着怒气的攻击将造成意想不到的伤害，攻击时一定几率暴击（伤害+1，概率：暂定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本性：嗜血                     狼人对血的渴望使得他们越来越强（每个房间造成10点伤害后攻击速度+1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血（造成伤害后判定，概率**，恢复1体力）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望：唯我独尊                 过度的傲慢致使生人勿进，攻击时有一定概率（暂定）击退敌人，打断攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>天赋：撕裂                     狼人利用增加尖锐的爪子撕裂对方的伤口，是对方难以移动（一定概率：暂定 移动速度-1）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>欲望：占有                     贪婪的欲望使得其想占有一切财富，越来越多的财富使其不断兴奋，变得更强。每使用（暂定：3）个道具回复一格体力（主动道具使用一次算一格道具，立即生效道具算一个道具）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（····）                                                   主动道具充能时，一定概率增加的灵魂数+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诅咒：毒噬                       攻击时用自己最拿手的剧毒诅咒吞噬对方，有一定几率使对方中毒（对方每次攻击时受到1点伤害，攻击三点）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">欲望：本性贪婪                 强大的欲望使得自己可以为了自己财富失去本性。财富（有用过的道具，详解见贪婪第五被动）越多，幸运越高（比例暂定）                                        </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID 6001-6005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID 6006-6010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID 60016-6020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID 6011-6015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗜睡：                           每结束一个房间回复一格生命（暂定，太强该被动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望：血之暴怒                  当自己的生命少于3格时（不包括三格）时，处于暴走状态，造成的攻击伤害+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>天赋：孤狼血统                 草原上的孤狼越战越勇，带着丝丝怒意，使自己变得更强，更快。在一个房间中收到超过两点伤害，攻速+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：血奴                     被吸血鬼击杀的敌人都有可能变成吸血鬼虚弱的血奴，为其战斗（概率：暂定 血奴：血量为三点 攻击方式：用爪子向前平砍 攻击速度：最低档次 移动速度：最低档次 硬值：暂定 伤害：1点）（本房间）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：坚甲                     优秀种族天赋给予了矮人们强大的抗性（不会被击倒，但是会被打断击退和硬控）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可切换形态,切换至A形态,仅A形态的精华技能有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">（····）                         一次性道具的使用次数+1，道具的掉落概率增加  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望：驱使                     在贪婪看来，财富是世上最神奇的事物，可以驱使一切。攻击时（概率：暂定）有一定概率驱使敌方为自己战斗（本房间）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：变身蝙蝠                 攻击时（概率：暂定）召唤一只蝙蝠（一段时间：随机 自爆，造成伤害：1，范围：暂定 无法被指定 飞行路径随机 ）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望：缠怒                     带着怒气的攻击将造成意想不到的伤害，攻击时一定几率暴击（伤害+1，概率：暂定）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本性：嗜血                     狼人对血的渴望使得他们越来越强（每个房间造成10点伤害后攻击速度+1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸血（造成伤害后判定，概率**，恢复1体力）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望：唯我独尊                 过度的傲慢致使生人勿进，攻击时有一定概率（暂定）击退敌人，打断攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -571,7 +571,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
@@ -588,24 +588,24 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
@@ -613,13 +613,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
@@ -627,27 +627,27 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
@@ -655,33 +655,33 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1"/>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1"/>

--- a/Documents/策划/精华技能.xlsx
+++ b/Documents/策划/精华技能.xlsx
@@ -114,51 +114,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>天赋：坚甲                     优秀种族天赋给予了矮人们强大的抗性（不会被击倒，但是会被打断击退和硬控）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可切换形态,切换至A形态,仅A形态的精华技能有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">（····）                         一次性道具的使用次数+1，道具的掉落概率增加  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望：驱使                     在贪婪看来，财富是世上最神奇的事物，可以驱使一切。攻击时（概率：暂定）有一定概率驱使敌方为自己战斗（本房间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：变身蝙蝠                 攻击时（概率：暂定）召唤一只蝙蝠（一段时间：随机 自爆，造成伤害：1，范围：暂定 无法被指定 飞行路径随机 ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望：缠怒                     带着怒气的攻击将造成意想不到的伤害，攻击时一定几率暴击（伤害+1，概率：暂定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本性：嗜血                     狼人对血的渴望使得他们越来越强（每个房间造成10点伤害后攻击速度+1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血（造成伤害后判定，概率**，恢复1体力）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望：唯我独尊                 过度的傲慢致使生人勿进，攻击时有一定概率（暂定）击退敌人，打断攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：撕裂                     狼人利用增加尖锐的爪子撕裂对方的伤口，是对方难以移动（一定概率：暂定 移动速度-1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：孤狼血统                 草原上的孤狼越战越勇，带着丝丝怒意，使自己变得更强，更快。在一个房间中收到超过两点伤害，攻速+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>天赋：血奴                     被吸血鬼击杀的敌人都有可能变成吸血鬼虚弱的血奴，为其战斗（概率：暂定 血奴：血量为三点 攻击方式：用爪子向前平砍 攻击速度：最低档次 移动速度：最低档次 硬值：暂定 伤害：1点）（本房间）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：坚甲                     优秀种族天赋给予了矮人们强大的抗性（不会被击倒，但是会被打断击退和硬控）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可切换形态,切换至A形态,仅A形态的精华技能有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">（····）                         一次性道具的使用次数+1，道具的掉落概率增加  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望：驱使                     在贪婪看来，财富是世上最神奇的事物，可以驱使一切。攻击时（概率：暂定）有一定概率驱使敌方为自己战斗（本房间）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：变身蝙蝠                 攻击时（概率：暂定）召唤一只蝙蝠（一段时间：随机 自爆，造成伤害：1，范围：暂定 无法被指定 飞行路径随机 ）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望：缠怒                     带着怒气的攻击将造成意想不到的伤害，攻击时一定几率暴击（伤害+1，概率：暂定）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本性：嗜血                     狼人对血的渴望使得他们越来越强（每个房间造成10点伤害后攻击速度+1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸血（造成伤害后判定，概率**，恢复1体力）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望：唯我独尊                 过度的傲慢致使生人勿进，攻击时有一定概率（暂定）击退敌人，打断攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：撕裂                     狼人利用增加尖锐的爪子撕裂对方的伤口，是对方难以移动（一定概率：暂定 移动速度-1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：孤狼血统                 草原上的孤狼越战越勇，带着丝丝怒意，使自己变得更强，更快。在一个房间中收到超过两点伤害，攻速+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,7 +548,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -596,13 +596,13 @@
         <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>20</v>
@@ -613,10 +613,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -630,7 +630,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
@@ -638,13 +638,13 @@
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -655,13 +655,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
@@ -681,7 +681,7 @@
     <row r="9" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1"/>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1"/>

--- a/Documents/策划/精华技能.xlsx
+++ b/Documents/策划/精华技能.xlsx
@@ -110,55 +110,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>天赋：坚甲                     优秀种族天赋给予了矮人们强大的抗性（不会被击倒，但是会被打断击退和硬控）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可切换形态,切换至A形态,仅A形态的精华技能有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">（····）                         一次性道具的使用次数+1，道具的掉落概率增加  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望：驱使                     在贪婪看来，财富是世上最神奇的事物，可以驱使一切。攻击时（概率：暂定）有一定概率驱使敌方为自己战斗（本房间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：变身蝙蝠                 攻击时（概率：暂定）召唤一只蝙蝠（一段时间：随机 自爆，造成伤害：1，范围：暂定 无法被指定 飞行路径随机 ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本性：嗜血                     狼人对血的渴望使得他们越来越强（每个房间造成10点伤害后攻击速度+1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血（造成伤害后判定，概率**，恢复1体力）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望：唯我独尊                 过度的傲慢致使生人勿进，攻击时有一定概率（暂定）击退敌人，打断攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：撕裂                     狼人利用增加尖锐的爪子撕裂对方的伤口，是对方难以移动（一定概率：暂定 移动速度-1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：孤狼血统                 草原上的孤狼越战越勇，带着丝丝怒意，使自己变得更强，更快。在一个房间中收到超过两点伤害，攻速+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：血奴                     被吸血鬼击杀的敌人都有可能变成吸血鬼虚弱的血奴，为其战斗（概率：暂定 血奴：血量为三点 攻击方式：用爪子向前平砍 攻击速度：最低档次 移动速度：最低档次 硬值：暂定 伤害：1点）（本房间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>欲望：血之暴怒                  当自己的生命少于3格时（不包括三格）时，处于暴走状态，造成的攻击伤害+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天赋：坚甲                     优秀种族天赋给予了矮人们强大的抗性（不会被击倒，但是会被打断击退和硬控）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可切换形态,切换至A形态,仅A形态的精华技能有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">（····）                         一次性道具的使用次数+1，道具的掉落概率增加  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望：驱使                     在贪婪看来，财富是世上最神奇的事物，可以驱使一切。攻击时（概率：暂定）有一定概率驱使敌方为自己战斗（本房间）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：变身蝙蝠                 攻击时（概率：暂定）召唤一只蝙蝠（一段时间：随机 自爆，造成伤害：1，范围：暂定 无法被指定 飞行路径随机 ）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>欲望：缠怒                     带着怒气的攻击将造成意想不到的伤害，攻击时一定几率暴击（伤害+1，概率：暂定）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本性：嗜血                     狼人对血的渴望使得他们越来越强（每个房间造成10点伤害后攻击速度+1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸血（造成伤害后判定，概率**，恢复1体力）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望：唯我独尊                 过度的傲慢致使生人勿进，攻击时有一定概率（暂定）击退敌人，打断攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：撕裂                     狼人利用增加尖锐的爪子撕裂对方的伤口，是对方难以移动（一定概率：暂定 移动速度-1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：孤狼血统                 草原上的孤狼越战越勇，带着丝丝怒意，使自己变得更强，更快。在一个房间中收到超过两点伤害，攻速+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：血奴                     被吸血鬼击杀的敌人都有可能变成吸血鬼虚弱的血奴，为其战斗（概率：暂定 血奴：血量为三点 攻击方式：用爪子向前平砍 攻击速度：最低档次 移动速度：最低档次 硬值：暂定 伤害：1点）（本房间）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -596,13 +596,13 @@
         <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>20</v>
@@ -613,10 +613,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -627,10 +627,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
@@ -638,13 +638,13 @@
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -655,13 +655,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
@@ -681,7 +681,7 @@
     <row r="9" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1"/>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1"/>

--- a/Documents/策划/精华技能.xlsx
+++ b/Documents/策划/精华技能.xlsx
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/Documents/策划/精华技能.xlsx
+++ b/Documents/策划/精华技能.xlsx
@@ -58,107 +58,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>欲望：占有                     贪婪的欲望使得其想占有一切财富，越来越多的财富使其不断兴奋，变得更强。每使用（暂定：3）个道具回复一格体力（主动道具使用一次算一格道具，立即生效道具算一个道具）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诅咒：毒噬                       攻击时用自己最拿手的剧毒诅咒吞噬对方，有一定几率使对方中毒（对方每次攻击时受到1点伤害，攻击三点）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">欲望：本性贪婪                 强大的欲望使得自己可以为了自己财富失去本性。财富（有用过的道具，详解见贪婪第五被动）越多，幸运越高（比例暂定）                                        </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 6001-6005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 6006-6010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 60016-6020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 6011-6015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜睡：                           每结束一个房间回复一格生命（暂定，太强该被动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：坚甲                     优秀种族天赋给予了矮人们强大的抗性（不会被击倒，但是会被打断击退和硬控）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望：驱使                     在贪婪看来，财富是世上最神奇的事物，可以驱使一切。攻击时（概率：暂定）有一定概率驱使敌方为自己战斗（本房间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：变身蝙蝠                 攻击时（概率：暂定）召唤一只蝙蝠（一段时间：随机 自爆，造成伤害：1，范围：暂定 无法被指定 飞行路径随机 ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本性：嗜血                     狼人对血的渴望使得他们越来越强（每个房间造成10点伤害后攻击速度+1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血（造成伤害后判定，概率**，恢复1体力）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望：唯我独尊                 过度的傲慢致使生人勿进，攻击时有一定概率（暂定）击退敌人，打断攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：孤狼血统                 草原上的孤狼越战越勇，带着丝丝怒意，使自己变得更强，更快。在一个房间中收到超过两点伤害，攻速+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：血奴                     被吸血鬼击杀的敌人都有可能变成吸血鬼虚弱的血奴，为其战斗（概率：暂定 血奴：血量为三点 攻击方式：用爪子向前平砍 攻击速度：最低档次 移动速度：最低档次 硬值：暂定 伤害：1点）（本房间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望：血之暴怒                  当自己的生命少于3格时（不包括三格）时，处于暴走状态，造成的攻击伤害+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望：缠怒                     带着怒气的攻击将造成意想不到的伤害，攻击时一定几率暴击（伤害+1，概率：暂定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可切换形态,切换至A形态,仅A形态的精华技能有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：撕裂                     狼人利用增加尖锐的爪子撕裂对方的伤口，是对方难以移动（一定概率：暂定 移动速度-1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>被攻击时，有一定（概率：  ）增加一个护盾（抵挡3点伤害）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>欲望：占有                     贪婪的欲望使得其想占有一切财富，越来越多的财富使其不断兴奋，变得更强。每使用（暂定：3）个道具回复一格体力（主动道具使用一次算一格道具，立即生效道具算一个道具）</t>
+    <t xml:space="preserve">（····）                         一次性道具的使用次数+1，道具的掉落概率增加  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>（····）                                                   主动道具充能时，一定概率增加的灵魂数+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诅咒：毒噬                       攻击时用自己最拿手的剧毒诅咒吞噬对方，有一定几率使对方中毒（对方每次攻击时受到1点伤害，攻击三点）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">欲望：本性贪婪                 强大的欲望使得自己可以为了自己财富失去本性。财富（有用过的道具，详解见贪婪第五被动）越多，幸运越高（比例暂定）                                        </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID 6001-6005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID 6006-6010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID 60016-6020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID 6011-6015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗜睡：                           每结束一个房间回复一格生命（暂定，太强该被动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：坚甲                     优秀种族天赋给予了矮人们强大的抗性（不会被击倒，但是会被打断击退和硬控）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可切换形态,切换至A形态,仅A形态的精华技能有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">（····）                         一次性道具的使用次数+1，道具的掉落概率增加  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望：驱使                     在贪婪看来，财富是世上最神奇的事物，可以驱使一切。攻击时（概率：暂定）有一定概率驱使敌方为自己战斗（本房间）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：变身蝙蝠                 攻击时（概率：暂定）召唤一只蝙蝠（一段时间：随机 自爆，造成伤害：1，范围：暂定 无法被指定 飞行路径随机 ）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本性：嗜血                     狼人对血的渴望使得他们越来越强（每个房间造成10点伤害后攻击速度+1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸血（造成伤害后判定，概率**，恢复1体力）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望：唯我独尊                 过度的傲慢致使生人勿进，攻击时有一定概率（暂定）击退敌人，打断攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：撕裂                     狼人利用增加尖锐的爪子撕裂对方的伤口，是对方难以移动（一定概率：暂定 移动速度-1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：孤狼血统                 草原上的孤狼越战越勇，带着丝丝怒意，使自己变得更强，更快。在一个房间中收到超过两点伤害，攻速+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：血奴                     被吸血鬼击杀的敌人都有可能变成吸血鬼虚弱的血奴，为其战斗（概率：暂定 血奴：血量为三点 攻击方式：用爪子向前平砍 攻击速度：最低档次 移动速度：最低档次 硬值：暂定 伤害：1点）（本房间）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望：血之暴怒                  当自己的生命少于3格时（不包括三格）时，处于暴走状态，造成的攻击伤害+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望：缠怒                     带着怒气的攻击将造成意想不到的伤害，攻击时一定几率暴击（伤害+1，概率：暂定）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -571,7 +571,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
@@ -588,24 +588,24 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
@@ -613,13 +613,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
@@ -627,61 +627,61 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1"/>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1"/>

--- a/Documents/策划/精华技能.xlsx
+++ b/Documents/策划/精华技能.xlsx
@@ -58,107 +58,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ID 6001-6005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 6006-6010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 60016-6020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 6011-6015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜睡：                           每结束一个房间回复一格生命（暂定，太强该被动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：坚甲                     优秀种族天赋给予了矮人们强大的抗性（不会被击倒，但是会被打断击退和硬控）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：变身蝙蝠                 攻击时（概率：暂定）召唤一只蝙蝠（一段时间：随机 自爆，造成伤害：1，范围：暂定 无法被指定 飞行路径随机 ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：血奴                     被吸血鬼击杀的敌人都有可能变成吸血鬼虚弱的血奴，为其战斗（概率：暂定 血奴：血量为三点 攻击方式：用爪子向前平砍 攻击速度：最低档次 移动速度：最低档次 硬值：暂定 伤害：1点）（本房间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望：血之暴怒                  当自己的生命少于3格时（不包括三格）时，处于暴走状态，造成的攻击伤害+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望：缠怒                     带着怒气的攻击将造成意想不到的伤害，攻击时一定几率暴击（伤害+1，概率：暂定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可切换形态,切换至A形态,仅A形态的精华技能有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：撕裂                     狼人利用增加尖锐的爪子撕裂对方的伤口，是对方难以移动（一定概率：暂定 移动速度-1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">（····）                         一次性道具的使用次数+1，道具的掉落概率增加  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本性：嗜血                     狼人对血的渴望使得他们越来越强（每个房间造成10点伤害后攻击速度+1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望：唯我独尊                 过度的傲慢致使生人勿进，攻击时有一定概率（暂定）击退敌人，打断攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（····）                                                   主动道具充能时，一定概率增加的灵魂数+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">欲望：本性贪婪                 强大的欲望使得自己可以为了自己财富失去本性。财富（有用过的道具，详解见贪婪第五被动）越多，幸运越高（比例暂定）                                        </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：孤狼血统                 草原上的孤狼越战越勇，带着丝丝怒意，使自己变得更强，更快。在一个房间中收到超过两点伤害，攻速+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诅咒：毒噬                       攻击时用自己最拿手的剧毒诅咒吞噬对方，有一定几率使对方中毒（对方每次攻击时受到1点伤害，攻击三点）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血（造成伤害后判定，概率**，恢复1体力）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被攻击时，有一定（概率：  ）增加一个护盾（抵挡3点伤害）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望：驱使                     在贪婪看来，财富是世上最神奇的事物，可以驱使一切。攻击时（概率：暂定）有一定概率驱使敌方为自己战斗（本房间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>欲望：占有                     贪婪的欲望使得其想占有一切财富，越来越多的财富使其不断兴奋，变得更强。每使用（暂定：3）个道具回复一格体力（主动道具使用一次算一格道具，立即生效道具算一个道具）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诅咒：毒噬                       攻击时用自己最拿手的剧毒诅咒吞噬对方，有一定几率使对方中毒（对方每次攻击时受到1点伤害，攻击三点）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">欲望：本性贪婪                 强大的欲望使得自己可以为了自己财富失去本性。财富（有用过的道具，详解见贪婪第五被动）越多，幸运越高（比例暂定）                                        </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID 6001-6005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID 6006-6010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID 60016-6020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID 6011-6015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗜睡：                           每结束一个房间回复一格生命（暂定，太强该被动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：坚甲                     优秀种族天赋给予了矮人们强大的抗性（不会被击倒，但是会被打断击退和硬控）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望：驱使                     在贪婪看来，财富是世上最神奇的事物，可以驱使一切。攻击时（概率：暂定）有一定概率驱使敌方为自己战斗（本房间）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：变身蝙蝠                 攻击时（概率：暂定）召唤一只蝙蝠（一段时间：随机 自爆，造成伤害：1，范围：暂定 无法被指定 飞行路径随机 ）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本性：嗜血                     狼人对血的渴望使得他们越来越强（每个房间造成10点伤害后攻击速度+1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸血（造成伤害后判定，概率**，恢复1体力）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望：唯我独尊                 过度的傲慢致使生人勿进，攻击时有一定概率（暂定）击退敌人，打断攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：孤狼血统                 草原上的孤狼越战越勇，带着丝丝怒意，使自己变得更强，更快。在一个房间中收到超过两点伤害，攻速+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：血奴                     被吸血鬼击杀的敌人都有可能变成吸血鬼虚弱的血奴，为其战斗（概率：暂定 血奴：血量为三点 攻击方式：用爪子向前平砍 攻击速度：最低档次 移动速度：最低档次 硬值：暂定 伤害：1点）（本房间）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望：血之暴怒                  当自己的生命少于3格时（不包括三格）时，处于暴走状态，造成的攻击伤害+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望：缠怒                     带着怒气的攻击将造成意想不到的伤害，攻击时一定几率暴击（伤害+1，概率：暂定）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可切换形态,切换至A形态,仅A形态的精华技能有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：撕裂                     狼人利用增加尖锐的爪子撕裂对方的伤口，是对方难以移动（一定概率：暂定 移动速度-1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被攻击时，有一定（概率：  ）增加一个护盾（抵挡3点伤害）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">（····）                         一次性道具的使用次数+1，道具的掉落概率增加  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（····）                                                   主动道具充能时，一定概率增加的灵魂数+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -571,7 +571,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
@@ -588,24 +588,24 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
@@ -613,13 +613,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
@@ -627,27 +627,27 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
@@ -655,33 +655,33 @@
         <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1"/>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1"/>

--- a/Documents/策划/精华技能.xlsx
+++ b/Documents/策划/精华技能.xlsx
@@ -22,143 +22,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>吸血鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪婪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矮人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒惰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">欲望：永恒安眠                 进入房间时，懒惰的欲望使敌方昏昏欲睡，导致行动迟缓（进入房间时，有一定几率使敌方的攻击速度-1所有敌人，独自判定）                       </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：锻造                     主动道具的充能灵魂数减少1/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 6001-6005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 6006-6010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 60016-6020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 6011-6015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜睡：                           每结束一个房间回复一格生命（暂定，太强该被动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：坚甲                     优秀种族天赋给予了矮人们强大的抗性（不会被击倒，但是会被打断击退和硬控）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：变身蝙蝠                 攻击时（概率：暂定）召唤一只蝙蝠（一段时间：随机 自爆，造成伤害：1，范围：暂定 无法被指定 飞行路径随机 ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：血奴                     被吸血鬼击杀的敌人都有可能变成吸血鬼虚弱的血奴，为其战斗（概率：暂定 血奴：血量为三点 攻击方式：用爪子向前平砍 攻击速度：最低档次 移动速度：最低档次 硬值：暂定 伤害：1点）（本房间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望：血之暴怒                  当自己的生命少于3格时（不包括三格）时，处于暴走状态，造成的攻击伤害+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望：缠怒                     带着怒气的攻击将造成意想不到的伤害，攻击时一定几率暴击（伤害+1，概率：暂定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可切换形态,切换至A形态,仅A形态的精华技能有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：撕裂                     狼人利用增加尖锐的爪子撕裂对方的伤口，是对方难以移动（一定概率：暂定 移动速度-1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">（····）                         一次性道具的使用次数+1，道具的掉落概率增加  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本性：嗜血                     狼人对血的渴望使得他们越来越强（每个房间造成10点伤害后攻击速度+1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望：唯我独尊                 过度的傲慢致使生人勿进，攻击时有一定概率（暂定）击退敌人，打断攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（····）                                                   主动道具充能时，一定概率增加的灵魂数+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">欲望：本性贪婪                 强大的欲望使得自己可以为了自己财富失去本性。财富（有用过的道具，详解见贪婪第五被动）越多，幸运越高（比例暂定）                                        </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：孤狼血统                 草原上的孤狼越战越勇，带着丝丝怒意，使自己变得更强，更快。在一个房间中收到超过两点伤害，攻速+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诅咒：毒噬                       攻击时用自己最拿手的剧毒诅咒吞噬对方，有一定几率使对方中毒（对方每次攻击时受到1点伤害，攻击三点）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血（造成伤害后判定，概率**，恢复1体力）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被攻击时，有一定（概率：  ）增加一个护盾（抵挡3点伤害）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望：驱使                     在贪婪看来，财富是世上最神奇的事物，可以驱使一切。攻击时（概率：暂定）有一定概率驱使敌方为自己战斗（本房间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望：占有                     贪婪的欲望使得其想占有一切财富，越来越多的财富使其不断兴奋，变得更强。每使用（暂定：3）个道具回复一格体力（主动道具使用一次算一格道具，立即生效道具算一个道具）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>傲慢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸血鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贪婪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地精</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矮人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>懒惰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">欲望：永恒安眠                 进入房间时，懒惰的欲望使敌方昏昏欲睡，导致行动迟缓（进入房间时，有一定几率使敌方的攻击速度-1所有敌人，独自判定）                       </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：锻造                     主动道具的充能灵魂数减少1/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID 6001-6005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID 6006-6010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID 60016-6020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID 6011-6015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗜睡：                           每结束一个房间回复一格生命（暂定，太强该被动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：坚甲                     优秀种族天赋给予了矮人们强大的抗性（不会被击倒，但是会被打断击退和硬控）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：变身蝙蝠                 攻击时（概率：暂定）召唤一只蝙蝠（一段时间：随机 自爆，造成伤害：1，范围：暂定 无法被指定 飞行路径随机 ）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：血奴                     被吸血鬼击杀的敌人都有可能变成吸血鬼虚弱的血奴，为其战斗（概率：暂定 血奴：血量为三点 攻击方式：用爪子向前平砍 攻击速度：最低档次 移动速度：最低档次 硬值：暂定 伤害：1点）（本房间）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望：血之暴怒                  当自己的生命少于3格时（不包括三格）时，处于暴走状态，造成的攻击伤害+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望：缠怒                     带着怒气的攻击将造成意想不到的伤害，攻击时一定几率暴击（伤害+1，概率：暂定）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可切换形态,切换至A形态,仅A形态的精华技能有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：撕裂                     狼人利用增加尖锐的爪子撕裂对方的伤口，是对方难以移动（一定概率：暂定 移动速度-1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">（····）                         一次性道具的使用次数+1，道具的掉落概率增加  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本性：嗜血                     狼人对血的渴望使得他们越来越强（每个房间造成10点伤害后攻击速度+1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望：唯我独尊                 过度的傲慢致使生人勿进，攻击时有一定概率（暂定）击退敌人，打断攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（····）                                                   主动道具充能时，一定概率增加的灵魂数+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">欲望：本性贪婪                 强大的欲望使得自己可以为了自己财富失去本性。财富（有用过的道具，详解见贪婪第五被动）越多，幸运越高（比例暂定）                                        </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：孤狼血统                 草原上的孤狼越战越勇，带着丝丝怒意，使自己变得更强，更快。在一个房间中收到超过两点伤害，攻速+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诅咒：毒噬                       攻击时用自己最拿手的剧毒诅咒吞噬对方，有一定几率使对方中毒（对方每次攻击时受到1点伤害，攻击三点）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸血（造成伤害后判定，概率**，恢复1体力）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被攻击时，有一定（概率：  ）增加一个护盾（抵挡3点伤害）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望：驱使                     在贪婪看来，财富是世上最神奇的事物，可以驱使一切。攻击时（概率：暂定）有一定概率驱使敌方为自己战斗（本房间）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望：占有                     贪婪的欲望使得其想占有一切财富，越来越多的财富使其不断兴奋，变得更强。每使用（暂定：3）个道具回复一格体力（主动道具使用一次算一格道具，立即生效道具算一个道具）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,141 +547,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="4" width="30.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="30.625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1"/>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1"/>

--- a/Documents/策划/精华技能.xlsx
+++ b/Documents/策划/精华技能.xlsx
@@ -46,14 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">欲望：永恒安眠                 进入房间时，懒惰的欲望使敌方昏昏欲睡，导致行动迟缓（进入房间时，有一定几率使敌方的攻击速度-1所有敌人，独自判定）                       </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：锻造                     主动道具的充能灵魂数减少1/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID 6001-6005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>嗜睡：                           每结束一个房间回复一格生命（暂定，太强该被动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,67 +86,334 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>欲望：血之暴怒                  当自己的生命少于3格时（不包括三格）时，处于暴走状态，造成的攻击伤害+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望：缠怒                     带着怒气的攻击将造成意想不到的伤害，攻击时一定几率暴击（伤害+1，概率：暂定）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可切换形态,切换至A形态,仅A形态的精华技能有效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天赋：撕裂                     狼人利用增加尖锐的爪子撕裂对方的伤口，是对方难以移动（一定概率：暂定 移动速度-1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">（····）                         一次性道具的使用次数+1，道具的掉落概率增加  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本性：嗜血                     狼人对血的渴望使得他们越来越强（每个房间造成10点伤害后攻击速度+1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望：唯我独尊                 过度的傲慢致使生人勿进，攻击时有一定概率（暂定）击退敌人，打断攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（····）                                                   主动道具充能时，一定概率增加的灵魂数+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">欲望：本性贪婪                 强大的欲望使得自己可以为了自己财富失去本性。财富（有用过的道具，详解见贪婪第五被动）越多，幸运越高（比例暂定）                                        </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋：孤狼血统                 草原上的孤狼越战越勇，带着丝丝怒意，使自己变得更强，更快。在一个房间中收到超过两点伤害，攻速+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诅咒：毒噬                       攻击时用自己最拿手的剧毒诅咒吞噬对方，有一定几率使对方中毒（对方每次攻击时受到1点伤害，攻击三点）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸血（造成伤害后判定，概率**，恢复1体力）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被攻击时，有一定（概率：  ）增加一个护盾（抵挡3点伤害）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>欲望：驱使                     在贪婪看来，财富是世上最神奇的事物，可以驱使一切。攻击时（概率：暂定）有一定概率驱使敌方为自己战斗（本房间）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>欲望：占有                     贪婪的欲望使得其想占有一切财富，越来越多的财富使其不断兴奋，变得更强。每使用（暂定：3）个道具回复一格体力（主动道具使用一次算一格道具，立即生效道具算一个道具）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>傲慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">天赋：锻造                    主动道具充能减少1/3                               </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>嗜睡：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                           每结束一个房间回复一格生命（暂定，太强该被动）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">欲望：永恒安眠  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">               进入房间时，懒惰的欲望使敌方昏昏欲睡，导致行动迟缓（进入房间时，有一定几率使敌方的攻击速度-1所有敌人，独自判定）                       </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">护盾  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                            被攻击时，有一定（概率：  ）增加一个护盾（抵挡3点伤害）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">欲望：占有 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                    贪婪的欲望使得其想占有一切财富，越来越多的财富使其不断兴奋，变得更强。每使用（暂定：3）个道具回复一格体力（主动道具使用一次算一格道具，立即生效道具算一个道具）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">欲望：本性贪婪 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                强大的欲望使得自己可以为了自己财富失去本性。财富（有用过的道具，详解见贪婪第五被动）越多，幸运越高（比例暂定）                                        </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（····）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                   主动道具充能时，一定概率增加的灵魂数+1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">诅咒：毒噬 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                      攻击时用自己最拿手的剧毒诅咒吞噬对方，有一定几率使对方中毒（对方每次攻击时受到1点伤害，攻击三点）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吸血</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（造成伤害后判定，概率**，恢复1体力）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>欲望：唯我独尊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                 过度的傲慢致使生人勿进，攻击时有一定概率（暂定）击退敌人，打断攻击</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>欲望：血之暴怒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                  当自己的生命少于3格时（不包括三格）时，处于暴走状态，造成的攻击伤害+1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>欲望：缠怒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                     带着怒气的攻击将造成意想不到的伤害，攻击时一定几率暴击（伤害+1，概率：暂定）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>本性：嗜血</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                     狼人对血的渴望使得他们越来越强（每个房间造成10点伤害后攻击速度+1）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>天赋：撕裂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                     狼人利用增加尖锐的爪子撕裂对方的伤口，是对方难以移动（一定概率：暂定 移动速度-1）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：孤狼血统                              草原上的孤狼越战越勇，带着丝丝怒意，使自己变得更强，更快。在一个房间中收到超过两点伤害，攻速+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +421,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +460,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -226,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -241,6 +512,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -548,7 +822,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -567,13 +841,13 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
@@ -590,100 +864,100 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
+      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
+      <c r="A6" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="99.95" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1"/>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1"/>
